--- a/output/Q4D.xlsx
+++ b/output/Q4D.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>561769610</v>
+        <v>19019262</v>
       </c>
     </row>
   </sheetData>
